--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++\DSA_final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7377A-F846-44F4-BA46-71F2E159ACF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFFF0C-C6C9-4746-997F-763FCD4F0A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2025,8 +2025,8 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>466</v>
+      <c r="C15" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2036,8 +2036,8 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>466</v>
+      <c r="C16" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2047,8 +2047,8 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>466</v>
+      <c r="C17" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2069,8 +2069,8 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>466</v>
+      <c r="C19" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2080,8 +2080,8 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>466</v>
+      <c r="C20" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2091,8 +2091,8 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>466</v>
+      <c r="C21" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2368,8 +2368,8 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>466</v>
+      <c r="C47" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++\DSA_final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720C63D-DC4C-4288-91F3-40BB7920E330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046D06E-4601-4070-B4D7-B1EFF8D7A89F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1420,13 +1420,19 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1488,13 +1494,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1510,7 +1535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1534,6 +1559,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1852,7 +1883,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1895,8 +1926,8 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+      <c r="C6" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1906,8 +1937,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1917,8 +1948,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1928,8 +1959,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1939,8 +1970,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1950,8 +1981,8 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
+      <c r="C11" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1961,8 +1992,8 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="C12" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1972,8 +2003,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="C13" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1983,8 +2014,8 @@
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="C14" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -1994,8 +2025,8 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="C15" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2005,8 +2036,8 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
+      <c r="C16" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2016,8 +2047,8 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
+      <c r="C17" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2027,8 +2058,8 @@
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
+      <c r="C18" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2038,8 +2069,8 @@
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
+      <c r="C19" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2049,8 +2080,8 @@
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
+      <c r="C20" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2060,8 +2091,8 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
+      <c r="C21" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2071,8 +2102,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2082,8 +2113,8 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
+      <c r="C23" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2093,8 +2124,8 @@
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
+      <c r="C24" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2104,8 +2135,8 @@
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
+      <c r="C25" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2115,8 +2146,8 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
+      <c r="C26" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2126,8 +2157,8 @@
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
+      <c r="C27" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2137,8 +2168,8 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
+      <c r="C28" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2148,8 +2179,8 @@
       <c r="B29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
+      <c r="C29" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2159,8 +2190,8 @@
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
+      <c r="C30" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2170,8 +2201,8 @@
       <c r="B31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
+      <c r="C31" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2181,8 +2212,8 @@
       <c r="B32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
+      <c r="C32" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2192,8 +2223,8 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
+      <c r="C33" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2203,8 +2234,8 @@
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
+      <c r="C34" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2214,8 +2245,8 @@
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
+      <c r="C35" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2225,8 +2256,8 @@
       <c r="B36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
+      <c r="C36" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2236,8 +2267,8 @@
       <c r="B37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
+      <c r="C37" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2247,8 +2278,8 @@
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
+      <c r="C38" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2258,8 +2289,8 @@
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
+      <c r="C39" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2269,8 +2300,8 @@
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
+      <c r="C40" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2280,21 +2311,21 @@
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>4</v>
+      <c r="C41" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
+      <c r="C42" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
+      <c r="C43" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="21">
@@ -2304,8 +2335,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
+      <c r="C44" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2315,8 +2346,8 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
+      <c r="C45" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2326,8 +2357,8 @@
       <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>4</v>
+      <c r="C46" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
@@ -2337,8 +2368,8 @@
       <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
+      <c r="C47" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2348,8 +2379,8 @@
       <c r="B48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>4</v>
+      <c r="C48" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2359,8 +2390,8 @@
       <c r="B49" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>4</v>
+      <c r="C49" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2370,8 +2401,8 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
+      <c r="C50" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2381,8 +2412,8 @@
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
+      <c r="C51" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2392,8 +2423,8 @@
       <c r="B52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
+      <c r="C52" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
@@ -2403,14 +2434,21 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
+      <c r="C53" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="C54" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
@@ -2419,8 +2457,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2430,8 +2468,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2441,8 +2479,8 @@
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
+      <c r="C58" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2452,8 +2490,8 @@
       <c r="B59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>4</v>
+      <c r="C59" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2463,8 +2501,8 @@
       <c r="B60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
+      <c r="C60" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2474,8 +2512,8 @@
       <c r="B61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>4</v>
+      <c r="C61" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -2485,8 +2523,8 @@
       <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>4</v>
+      <c r="C62" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
@@ -2496,8 +2534,8 @@
       <c r="B63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>4</v>
+      <c r="C63" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
@@ -2507,8 +2545,8 @@
       <c r="B64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>4</v>
+      <c r="C64" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
@@ -2518,8 +2556,8 @@
       <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>4</v>
+      <c r="C65" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2529,8 +2567,8 @@
       <c r="B66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>4</v>
+      <c r="C66" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
@@ -2540,8 +2578,8 @@
       <c r="B67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>4</v>
+      <c r="C67" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
@@ -2551,8 +2589,8 @@
       <c r="B68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>4</v>
+      <c r="C68" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
@@ -2562,8 +2600,8 @@
       <c r="B69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
+      <c r="C69" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
@@ -2573,8 +2611,8 @@
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>4</v>
+      <c r="C70" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
@@ -2584,8 +2622,8 @@
       <c r="B71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>4</v>
+      <c r="C71" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
@@ -2595,8 +2633,8 @@
       <c r="B72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>4</v>
+      <c r="C72" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">
@@ -2606,8 +2644,8 @@
       <c r="B73" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>4</v>
+      <c r="C73" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
@@ -2617,8 +2655,8 @@
       <c r="B74" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>4</v>
+      <c r="C74" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
@@ -2628,8 +2666,8 @@
       <c r="B75" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>4</v>
+      <c r="C75" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
@@ -2639,8 +2677,8 @@
       <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>4</v>
+      <c r="C76" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
@@ -2650,8 +2688,8 @@
       <c r="B77" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>4</v>
+      <c r="C77" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
@@ -2661,8 +2699,8 @@
       <c r="B78" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>4</v>
+      <c r="C78" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
@@ -2672,8 +2710,8 @@
       <c r="B79" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>4</v>
+      <c r="C79" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21">
@@ -2683,8 +2721,8 @@
       <c r="B80" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>4</v>
+      <c r="C80" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
@@ -2694,8 +2732,8 @@
       <c r="B81" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>4</v>
+      <c r="C81" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
@@ -2705,8 +2743,8 @@
       <c r="B82" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>4</v>
+      <c r="C82" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
@@ -2716,8 +2754,8 @@
       <c r="B83" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>4</v>
+      <c r="C83" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
@@ -2727,8 +2765,8 @@
       <c r="B84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>4</v>
+      <c r="C84" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
@@ -2738,8 +2776,8 @@
       <c r="B85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>4</v>
+      <c r="C85" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
@@ -2749,8 +2787,8 @@
       <c r="B86" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>4</v>
+      <c r="C86" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
@@ -2760,8 +2798,8 @@
       <c r="B87" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>4</v>
+      <c r="C87" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
@@ -2771,8 +2809,8 @@
       <c r="B88" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>4</v>
+      <c r="C88" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
@@ -2782,8 +2820,8 @@
       <c r="B89" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>4</v>
+      <c r="C89" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -2793,8 +2831,8 @@
       <c r="B90" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>4</v>
+      <c r="C90" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
@@ -2804,8 +2842,8 @@
       <c r="B91" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>4</v>
+      <c r="C91" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -2815,8 +2853,8 @@
       <c r="B92" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>4</v>
+      <c r="C92" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
@@ -2826,8 +2864,8 @@
       <c r="B93" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>4</v>
+      <c r="C93" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
@@ -2837,8 +2875,8 @@
       <c r="B94" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>4</v>
+      <c r="C94" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
@@ -2848,8 +2886,8 @@
       <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
+      <c r="C95" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
@@ -2859,8 +2897,8 @@
       <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
+      <c r="C96" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
@@ -2870,8 +2908,8 @@
       <c r="B97" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>4</v>
+      <c r="C97" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -2881,14 +2919,21 @@
       <c r="B98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>4</v>
+      <c r="C98" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="C99" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
@@ -2897,8 +2942,8 @@
       <c r="B101" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>4</v>
+      <c r="C101" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2908,8 +2953,8 @@
       <c r="B102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>4</v>
+      <c r="C102" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2919,8 +2964,8 @@
       <c r="B103" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>4</v>
+      <c r="C103" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2930,8 +2975,8 @@
       <c r="B104" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>4</v>
+      <c r="C104" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2941,8 +2986,8 @@
       <c r="B105" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>4</v>
+      <c r="C105" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -2952,8 +2997,8 @@
       <c r="B106" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>4</v>
+      <c r="C106" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
@@ -2963,8 +3008,8 @@
       <c r="B107" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
+      <c r="C107" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2974,8 +3019,8 @@
       <c r="B108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
+      <c r="C108" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -2985,8 +3030,8 @@
       <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
+      <c r="C109" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -2996,8 +3041,8 @@
       <c r="B110" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>4</v>
+      <c r="C110" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
@@ -3007,8 +3052,8 @@
       <c r="B111" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>4</v>
+      <c r="C111" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
@@ -3018,8 +3063,8 @@
       <c r="B112" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>4</v>
+      <c r="C112" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3029,8 +3074,8 @@
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>4</v>
+      <c r="C113" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3040,8 +3085,8 @@
       <c r="B114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>4</v>
+      <c r="C114" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3051,8 +3096,8 @@
       <c r="B115" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>4</v>
+      <c r="C115" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3062,8 +3107,8 @@
       <c r="B116" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>4</v>
+      <c r="C116" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3073,8 +3118,8 @@
       <c r="B117" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>4</v>
+      <c r="C117" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
@@ -3084,8 +3129,8 @@
       <c r="B118" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>4</v>
+      <c r="C118" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">
@@ -3095,8 +3140,8 @@
       <c r="B119" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>4</v>
+      <c r="C119" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
@@ -3106,8 +3151,8 @@
       <c r="B120" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>4</v>
+      <c r="C120" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
@@ -3117,8 +3162,8 @@
       <c r="B121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>4</v>
+      <c r="C121" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
@@ -3128,8 +3173,8 @@
       <c r="B122" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>4</v>
+      <c r="C122" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
@@ -3139,8 +3184,8 @@
       <c r="B123" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>4</v>
+      <c r="C123" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">
@@ -3150,8 +3195,8 @@
       <c r="B124" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>4</v>
+      <c r="C124" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
@@ -3161,8 +3206,8 @@
       <c r="B125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>4</v>
+      <c r="C125" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
@@ -3172,8 +3217,8 @@
       <c r="B126" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>4</v>
+      <c r="C126" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
@@ -3183,8 +3228,8 @@
       <c r="B127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>4</v>
+      <c r="C127" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">
@@ -3194,8 +3239,8 @@
       <c r="B128" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>4</v>
+      <c r="C128" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
@@ -3205,8 +3250,8 @@
       <c r="B129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>4</v>
+      <c r="C129" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
@@ -3216,8 +3261,8 @@
       <c r="B130" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>4</v>
+      <c r="C130" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
@@ -3227,8 +3272,8 @@
       <c r="B131" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>4</v>
+      <c r="C131" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
@@ -3238,8 +3283,8 @@
       <c r="B132" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>4</v>
+      <c r="C132" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
@@ -3249,8 +3294,8 @@
       <c r="B133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>4</v>
+      <c r="C133" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
@@ -3260,8 +3305,8 @@
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
+      <c r="C134" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
@@ -3271,8 +3316,8 @@
       <c r="B135" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>4</v>
+      <c r="C135" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="21">
@@ -3282,13 +3327,20 @@
       <c r="B136" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>4</v>
+      <c r="C136" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="C137" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="21">
       <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
@@ -3297,8 +3349,8 @@
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>4</v>
+      <c r="C139" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3308,8 +3360,8 @@
       <c r="B140" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>4</v>
+      <c r="C140" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3319,8 +3371,8 @@
       <c r="B141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>4</v>
+      <c r="C141" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3330,8 +3382,8 @@
       <c r="B142" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>4</v>
+      <c r="C142" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3341,8 +3393,8 @@
       <c r="B143" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>4</v>
+      <c r="C143" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3352,8 +3404,8 @@
       <c r="B144" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>4</v>
+      <c r="C144" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3363,8 +3415,8 @@
       <c r="B145" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>4</v>
+      <c r="C145" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3374,8 +3426,8 @@
       <c r="B146" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>4</v>
+      <c r="C146" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3385,8 +3437,8 @@
       <c r="B147" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>4</v>
+      <c r="C147" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3396,8 +3448,8 @@
       <c r="B148" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>4</v>
+      <c r="C148" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3407,8 +3459,8 @@
       <c r="B149" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>4</v>
+      <c r="C149" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3418,8 +3470,8 @@
       <c r="B150" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>4</v>
+      <c r="C150" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3429,8 +3481,8 @@
       <c r="B151" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>4</v>
+      <c r="C151" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3440,8 +3492,8 @@
       <c r="B152" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>4</v>
+      <c r="C152" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="21">
@@ -3451,8 +3503,8 @@
       <c r="B153" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>4</v>
+      <c r="C153" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3462,8 +3514,8 @@
       <c r="B154" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>4</v>
+      <c r="C154" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3473,8 +3525,8 @@
       <c r="B155" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>4</v>
+      <c r="C155" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
@@ -3484,8 +3536,8 @@
       <c r="B156" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>4</v>
+      <c r="C156" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3495,8 +3547,8 @@
       <c r="B157" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>4</v>
+      <c r="C157" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3506,8 +3558,8 @@
       <c r="B158" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>4</v>
+      <c r="C158" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3517,8 +3569,8 @@
       <c r="B159" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>4</v>
+      <c r="C159" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3528,8 +3580,8 @@
       <c r="B160" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>4</v>
+      <c r="C160" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
@@ -3539,8 +3591,8 @@
       <c r="B161" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>4</v>
+      <c r="C161" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3550,8 +3602,8 @@
       <c r="B162" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>4</v>
+      <c r="C162" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3561,8 +3613,8 @@
       <c r="B163" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>4</v>
+      <c r="C163" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3572,8 +3624,8 @@
       <c r="B164" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>4</v>
+      <c r="C164" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -3583,8 +3635,8 @@
       <c r="B165" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>4</v>
+      <c r="C165" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
@@ -3594,8 +3646,8 @@
       <c r="B166" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>4</v>
+      <c r="C166" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3605,8 +3657,8 @@
       <c r="B167" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>4</v>
+      <c r="C167" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
@@ -3616,8 +3668,8 @@
       <c r="B168" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>4</v>
+      <c r="C168" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
@@ -3627,8 +3679,8 @@
       <c r="B169" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>4</v>
+      <c r="C169" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
@@ -3638,8 +3690,8 @@
       <c r="B170" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>4</v>
+      <c r="C170" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
@@ -3649,8 +3701,8 @@
       <c r="B171" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>4</v>
+      <c r="C171" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
@@ -3660,8 +3712,8 @@
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>4</v>
+      <c r="C172" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
@@ -3671,8 +3723,8 @@
       <c r="B173" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>4</v>
+      <c r="C173" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3682,13 +3734,20 @@
       <c r="B174" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>4</v>
+      <c r="C174" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
@@ -3697,8 +3756,8 @@
       <c r="B177" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>4</v>
+      <c r="C177" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3708,8 +3767,8 @@
       <c r="B178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>4</v>
+      <c r="C178" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3719,8 +3778,8 @@
       <c r="B179" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>4</v>
+      <c r="C179" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3730,8 +3789,8 @@
       <c r="B180" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>4</v>
+      <c r="C180" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3741,8 +3800,8 @@
       <c r="B181" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>4</v>
+      <c r="C181" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3752,8 +3811,8 @@
       <c r="B182" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>4</v>
+      <c r="C182" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3763,8 +3822,8 @@
       <c r="B183" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>4</v>
+      <c r="C183" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3774,8 +3833,8 @@
       <c r="B184" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>4</v>
+      <c r="C184" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3785,8 +3844,8 @@
       <c r="B185" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>4</v>
+      <c r="C185" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3796,8 +3855,8 @@
       <c r="B186" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C186" s="4" t="s">
-        <v>4</v>
+      <c r="C186" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">
@@ -3807,8 +3866,8 @@
       <c r="B187" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C187" s="4" t="s">
-        <v>4</v>
+      <c r="C187" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3818,8 +3877,8 @@
       <c r="B188" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C188" s="4" t="s">
-        <v>4</v>
+      <c r="C188" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -3829,8 +3888,8 @@
       <c r="B189" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>4</v>
+      <c r="C189" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3840,8 +3899,8 @@
       <c r="B190" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>4</v>
+      <c r="C190" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
@@ -3851,8 +3910,8 @@
       <c r="B191" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>4</v>
+      <c r="C191" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
@@ -3862,8 +3921,8 @@
       <c r="B192" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>4</v>
+      <c r="C192" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
@@ -3873,8 +3932,8 @@
       <c r="B193" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>4</v>
+      <c r="C193" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
@@ -3884,8 +3943,8 @@
       <c r="B194" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>4</v>
+      <c r="C194" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
@@ -3895,8 +3954,8 @@
       <c r="B195" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>4</v>
+      <c r="C195" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3906,8 +3965,8 @@
       <c r="B196" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>4</v>
+      <c r="C196" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
@@ -3917,8 +3976,8 @@
       <c r="B197" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C197" s="4" t="s">
-        <v>4</v>
+      <c r="C197" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
@@ -3928,8 +3987,8 @@
       <c r="B198" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>4</v>
+      <c r="C198" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3939,8 +3998,8 @@
       <c r="B199" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C199" s="4" t="s">
-        <v>4</v>
+      <c r="C199" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
@@ -3950,8 +4009,8 @@
       <c r="B200" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>4</v>
+      <c r="C200" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
@@ -3961,8 +4020,8 @@
       <c r="B201" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>4</v>
+      <c r="C201" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -3972,8 +4031,8 @@
       <c r="B202" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C202" s="4" t="s">
-        <v>4</v>
+      <c r="C202" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -3983,8 +4042,8 @@
       <c r="B203" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>4</v>
+      <c r="C203" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -3994,8 +4053,8 @@
       <c r="B204" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>4</v>
+      <c r="C204" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4005,8 +4064,8 @@
       <c r="B205" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>4</v>
+      <c r="C205" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
@@ -4016,8 +4075,8 @@
       <c r="B206" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>4</v>
+      <c r="C206" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
@@ -4027,8 +4086,8 @@
       <c r="B207" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C207" s="4" t="s">
-        <v>4</v>
+      <c r="C207" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4038,8 +4097,8 @@
       <c r="B208" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>4</v>
+      <c r="C208" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4049,8 +4108,8 @@
       <c r="B209" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
+      <c r="C209" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4060,8 +4119,8 @@
       <c r="B210" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>4</v>
+      <c r="C210" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
@@ -4071,19 +4130,23 @@
       <c r="B211" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>4</v>
+      <c r="C211" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
+      <c r="C212" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
+      <c r="C213" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
@@ -4092,8 +4155,8 @@
       <c r="B214" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C214" s="4" t="s">
-        <v>4</v>
+      <c r="C214" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4103,8 +4166,8 @@
       <c r="B215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C215" s="4" t="s">
-        <v>4</v>
+      <c r="C215" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4114,8 +4177,8 @@
       <c r="B216" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C216" s="4" t="s">
-        <v>4</v>
+      <c r="C216" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4125,8 +4188,8 @@
       <c r="B217" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>4</v>
+      <c r="C217" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4136,8 +4199,8 @@
       <c r="B218" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>4</v>
+      <c r="C218" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4147,8 +4210,8 @@
       <c r="B219" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>4</v>
+      <c r="C219" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4158,8 +4221,8 @@
       <c r="B220" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C220" s="4" t="s">
-        <v>4</v>
+      <c r="C220" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
@@ -4169,8 +4232,8 @@
       <c r="B221" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C221" s="4" t="s">
-        <v>4</v>
+      <c r="C221" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4180,8 +4243,8 @@
       <c r="B222" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C222" s="4" t="s">
-        <v>4</v>
+      <c r="C222" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4191,8 +4254,8 @@
       <c r="B223" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C223" s="4" t="s">
-        <v>4</v>
+      <c r="C223" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4202,8 +4265,8 @@
       <c r="B224" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>4</v>
+      <c r="C224" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
@@ -4213,8 +4276,8 @@
       <c r="B225" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>4</v>
+      <c r="C225" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4224,8 +4287,8 @@
       <c r="B226" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C226" s="4" t="s">
-        <v>4</v>
+      <c r="C226" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4235,8 +4298,8 @@
       <c r="B227" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>4</v>
+      <c r="C227" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
@@ -4246,8 +4309,8 @@
       <c r="B228" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>4</v>
+      <c r="C228" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
@@ -4257,8 +4320,8 @@
       <c r="B229" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>4</v>
+      <c r="C229" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
@@ -4268,8 +4331,8 @@
       <c r="B230" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C230" s="4" t="s">
-        <v>4</v>
+      <c r="C230" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
@@ -4279,8 +4342,8 @@
       <c r="B231" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>4</v>
+      <c r="C231" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
@@ -4290,8 +4353,8 @@
       <c r="B232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>4</v>
+      <c r="C232" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
@@ -4301,8 +4364,8 @@
       <c r="B233" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>4</v>
+      <c r="C233" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
@@ -4312,8 +4375,8 @@
       <c r="B234" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>4</v>
+      <c r="C234" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
@@ -4323,17 +4386,21 @@
       <c r="B235" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>4</v>
+      <c r="C235" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">
       <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
+      <c r="C236" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="237" spans="1:3" ht="21">
       <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
+      <c r="C237" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
@@ -4342,8 +4409,8 @@
       <c r="B238" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>4</v>
+      <c r="C238" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="21">
@@ -4353,8 +4420,8 @@
       <c r="B239" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>4</v>
+      <c r="C239" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -4364,8 +4431,8 @@
       <c r="B240" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>4</v>
+      <c r="C240" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="21">
@@ -4375,8 +4442,8 @@
       <c r="B241" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>4</v>
+      <c r="C241" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="21">
@@ -4386,8 +4453,8 @@
       <c r="B242" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C242" s="4" t="s">
-        <v>4</v>
+      <c r="C242" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="21">
@@ -4397,8 +4464,8 @@
       <c r="B243" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>4</v>
+      <c r="C243" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="21">
@@ -4408,8 +4475,8 @@
       <c r="B244" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C244" s="4" t="s">
-        <v>4</v>
+      <c r="C244" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="21">
@@ -4419,8 +4486,8 @@
       <c r="B245" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C245" s="4" t="s">
-        <v>4</v>
+      <c r="C245" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="21">
@@ -4430,8 +4497,8 @@
       <c r="B246" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>4</v>
+      <c r="C246" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="21">
@@ -4441,8 +4508,8 @@
       <c r="B247" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C247" s="4" t="s">
-        <v>4</v>
+      <c r="C247" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="21">
@@ -4452,8 +4519,8 @@
       <c r="B248" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C248" s="4" t="s">
-        <v>4</v>
+      <c r="C248" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="21">
@@ -4463,8 +4530,8 @@
       <c r="B249" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C249" s="4" t="s">
-        <v>4</v>
+      <c r="C249" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="21">
@@ -4474,8 +4541,8 @@
       <c r="B250" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="4" t="s">
-        <v>4</v>
+      <c r="C250" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="21">
@@ -4485,8 +4552,8 @@
       <c r="B251" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C251" s="4" t="s">
-        <v>4</v>
+      <c r="C251" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="21">
@@ -4496,8 +4563,8 @@
       <c r="B252" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>4</v>
+      <c r="C252" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="21">
@@ -4507,8 +4574,8 @@
       <c r="B253" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C253" s="4" t="s">
-        <v>4</v>
+      <c r="C253" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="21">
@@ -4518,8 +4585,8 @@
       <c r="B254" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C254" s="4" t="s">
-        <v>4</v>
+      <c r="C254" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="21">
@@ -4529,8 +4596,8 @@
       <c r="B255" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C255" s="4" t="s">
-        <v>4</v>
+      <c r="C255" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="21">
@@ -4540,8 +4607,8 @@
       <c r="B256" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C256" s="4" t="s">
-        <v>4</v>
+      <c r="C256" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
@@ -4551,8 +4618,8 @@
       <c r="B257" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C257" s="4" t="s">
-        <v>4</v>
+      <c r="C257" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">
@@ -4562,8 +4629,8 @@
       <c r="B258" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>4</v>
+      <c r="C258" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="21">
@@ -4573,8 +4640,8 @@
       <c r="B259" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C259" s="4" t="s">
-        <v>4</v>
+      <c r="C259" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="21">
@@ -4584,8 +4651,8 @@
       <c r="B260" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C260" s="4" t="s">
-        <v>4</v>
+      <c r="C260" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="21">
@@ -4595,8 +4662,8 @@
       <c r="B261" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C261" s="4" t="s">
-        <v>4</v>
+      <c r="C261" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="21">
@@ -4606,8 +4673,8 @@
       <c r="B262" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C262" s="4" t="s">
-        <v>4</v>
+      <c r="C262" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="21">
@@ -4617,8 +4684,8 @@
       <c r="B263" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C263" s="4" t="s">
-        <v>4</v>
+      <c r="C263" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="21">
@@ -4628,8 +4695,8 @@
       <c r="B264" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>4</v>
+      <c r="C264" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="21">
@@ -4639,8 +4706,8 @@
       <c r="B265" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="4" t="s">
-        <v>4</v>
+      <c r="C265" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="21">
@@ -4650,8 +4717,8 @@
       <c r="B266" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>4</v>
+      <c r="C266" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="21">
@@ -4661,8 +4728,8 @@
       <c r="B267" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C267" s="4" t="s">
-        <v>4</v>
+      <c r="C267" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="21">
@@ -4672,8 +4739,8 @@
       <c r="B268" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C268" s="4" t="s">
-        <v>4</v>
+      <c r="C268" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="21">
@@ -4683,8 +4750,8 @@
       <c r="B269" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
+      <c r="C269" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="21">
@@ -4694,8 +4761,8 @@
       <c r="B270" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
+      <c r="C270" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="21">
@@ -4705,8 +4772,8 @@
       <c r="B271" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C271" s="4" t="s">
-        <v>4</v>
+      <c r="C271" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="21">
@@ -4716,17 +4783,21 @@
       <c r="B272" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C272" s="4" t="s">
-        <v>4</v>
+      <c r="C272" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
       <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
+      <c r="C273" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="21">
       <c r="B274" s="7"/>
-      <c r="C274" s="4"/>
+      <c r="C274" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
@@ -4735,8 +4806,8 @@
       <c r="B275" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C275" s="4" t="s">
-        <v>4</v>
+      <c r="C275" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
@@ -4746,8 +4817,8 @@
       <c r="B276" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>4</v>
+      <c r="C276" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
@@ -4757,8 +4828,8 @@
       <c r="B277" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C277" s="4" t="s">
-        <v>4</v>
+      <c r="C277" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
@@ -4768,8 +4839,8 @@
       <c r="B278" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C278" s="4" t="s">
-        <v>4</v>
+      <c r="C278" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="21">
@@ -4779,8 +4850,8 @@
       <c r="B279" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>4</v>
+      <c r="C279" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
@@ -4790,8 +4861,8 @@
       <c r="B280" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C280" s="4" t="s">
-        <v>4</v>
+      <c r="C280" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
@@ -4801,8 +4872,8 @@
       <c r="B281" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>4</v>
+      <c r="C281" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
@@ -4812,8 +4883,8 @@
       <c r="B282" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C282" s="4" t="s">
-        <v>4</v>
+      <c r="C282" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
@@ -4823,8 +4894,8 @@
       <c r="B283" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C283" s="4" t="s">
-        <v>4</v>
+      <c r="C283" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
@@ -4834,8 +4905,8 @@
       <c r="B284" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C284" s="4" t="s">
-        <v>4</v>
+      <c r="C284" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
@@ -4845,8 +4916,8 @@
       <c r="B285" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C285" s="4" t="s">
-        <v>4</v>
+      <c r="C285" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
@@ -4856,8 +4927,8 @@
       <c r="B286" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C286" s="4" t="s">
-        <v>4</v>
+      <c r="C286" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
@@ -4867,8 +4938,8 @@
       <c r="B287" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C287" s="4" t="s">
-        <v>4</v>
+      <c r="C287" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
@@ -4878,8 +4949,8 @@
       <c r="B288" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C288" s="4" t="s">
-        <v>4</v>
+      <c r="C288" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
@@ -4889,8 +4960,8 @@
       <c r="B289" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>4</v>
+      <c r="C289" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
@@ -4900,8 +4971,8 @@
       <c r="B290" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="4" t="s">
-        <v>4</v>
+      <c r="C290" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
@@ -4911,8 +4982,8 @@
       <c r="B291" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>4</v>
+      <c r="C291" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">
@@ -4922,8 +4993,8 @@
       <c r="B292" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C292" s="4" t="s">
-        <v>4</v>
+      <c r="C292" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">
@@ -4933,17 +5004,21 @@
       <c r="B293" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C293" s="4" t="s">
-        <v>4</v>
+      <c r="C293" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="21">
       <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
+      <c r="C294" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="295" spans="1:3" ht="21">
       <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
+      <c r="C295" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
@@ -4952,8 +5027,8 @@
       <c r="B296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C296" s="4" t="s">
-        <v>4</v>
+      <c r="C296" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4963,8 +5038,8 @@
       <c r="B297" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C297" s="4" t="s">
-        <v>4</v>
+      <c r="C297" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4974,8 +5049,8 @@
       <c r="B298" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>4</v>
+      <c r="C298" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -4985,8 +5060,8 @@
       <c r="B299" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>4</v>
+      <c r="C299" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
@@ -4996,8 +5071,8 @@
       <c r="B300" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C300" s="4" t="s">
-        <v>4</v>
+      <c r="C300" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
@@ -5007,8 +5082,8 @@
       <c r="B301" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C301" s="4" t="s">
-        <v>4</v>
+      <c r="C301" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5018,8 +5093,8 @@
       <c r="B302" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C302" s="4" t="s">
-        <v>4</v>
+      <c r="C302" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5029,8 +5104,8 @@
       <c r="B303" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C303" s="4" t="s">
-        <v>4</v>
+      <c r="C303" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5040,8 +5115,8 @@
       <c r="B304" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C304" s="4" t="s">
-        <v>4</v>
+      <c r="C304" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
@@ -5051,8 +5126,8 @@
       <c r="B305" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C305" s="4" t="s">
-        <v>4</v>
+      <c r="C305" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
@@ -5062,8 +5137,8 @@
       <c r="B306" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C306" s="4" t="s">
-        <v>4</v>
+      <c r="C306" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
@@ -5073,8 +5148,8 @@
       <c r="B307" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C307" s="4" t="s">
-        <v>4</v>
+      <c r="C307" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
@@ -5084,8 +5159,8 @@
       <c r="B308" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C308" s="4" t="s">
-        <v>4</v>
+      <c r="C308" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
@@ -5095,8 +5170,8 @@
       <c r="B309" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C309" s="4" t="s">
-        <v>4</v>
+      <c r="C309" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
@@ -5106,8 +5181,8 @@
       <c r="B310" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>4</v>
+      <c r="C310" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
@@ -5117,8 +5192,8 @@
       <c r="B311" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C311" s="4" t="s">
-        <v>4</v>
+      <c r="C311" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
@@ -5128,8 +5203,8 @@
       <c r="B312" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C312" s="4" t="s">
-        <v>4</v>
+      <c r="C312" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
@@ -5139,8 +5214,8 @@
       <c r="B313" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C313" s="4" t="s">
-        <v>4</v>
+      <c r="C313" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
@@ -5150,8 +5225,8 @@
       <c r="B314" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C314" s="4" t="s">
-        <v>4</v>
+      <c r="C314" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
@@ -5161,8 +5236,8 @@
       <c r="B315" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C315" s="4" t="s">
-        <v>4</v>
+      <c r="C315" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
@@ -5172,8 +5247,8 @@
       <c r="B316" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C316" s="4" t="s">
-        <v>4</v>
+      <c r="C316" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
@@ -5183,8 +5258,8 @@
       <c r="B317" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C317" s="4" t="s">
-        <v>4</v>
+      <c r="C317" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
@@ -5194,8 +5269,8 @@
       <c r="B318" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C318" s="4" t="s">
-        <v>4</v>
+      <c r="C318" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
@@ -5205,8 +5280,8 @@
       <c r="B319" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C319" s="4" t="s">
-        <v>4</v>
+      <c r="C319" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
@@ -5216,8 +5291,8 @@
       <c r="B320" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C320" s="4" t="s">
-        <v>4</v>
+      <c r="C320" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
@@ -5227,8 +5302,8 @@
       <c r="B321" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C321" s="4" t="s">
-        <v>4</v>
+      <c r="C321" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
@@ -5238,8 +5313,8 @@
       <c r="B322" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>4</v>
+      <c r="C322" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
@@ -5249,8 +5324,8 @@
       <c r="B323" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C323" s="4" t="s">
-        <v>4</v>
+      <c r="C323" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
@@ -5260,8 +5335,8 @@
       <c r="B324" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C324" s="4" t="s">
-        <v>4</v>
+      <c r="C324" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
@@ -5271,8 +5346,8 @@
       <c r="B325" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C325" s="4" t="s">
-        <v>4</v>
+      <c r="C325" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
@@ -5282,8 +5357,8 @@
       <c r="B326" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C326" s="4" t="s">
-        <v>4</v>
+      <c r="C326" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
@@ -5293,8 +5368,8 @@
       <c r="B327" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C327" s="4" t="s">
-        <v>4</v>
+      <c r="C327" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
@@ -5304,8 +5379,8 @@
       <c r="B328" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C328" s="4" t="s">
-        <v>4</v>
+      <c r="C328" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="21">
@@ -5315,8 +5390,8 @@
       <c r="B329" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C329" s="4" t="s">
-        <v>4</v>
+      <c r="C329" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
@@ -5326,8 +5401,8 @@
       <c r="B330" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
+      <c r="C330" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="21">
@@ -5337,8 +5412,8 @@
       <c r="B331" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>4</v>
+      <c r="C331" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
@@ -5348,8 +5423,8 @@
       <c r="B332" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C332" s="4" t="s">
-        <v>4</v>
+      <c r="C332" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">
@@ -5359,17 +5434,21 @@
       <c r="B333" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C333" s="4" t="s">
-        <v>4</v>
+      <c r="C333" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">
       <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="C334" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="21">
       <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="C335" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
@@ -5378,8 +5457,8 @@
       <c r="B336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C336" s="4" t="s">
-        <v>4</v>
+      <c r="C336" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="21">
@@ -5389,8 +5468,8 @@
       <c r="B337" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C337" s="4" t="s">
-        <v>4</v>
+      <c r="C337" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="21">
@@ -5400,8 +5479,8 @@
       <c r="B338" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C338" s="4" t="s">
-        <v>4</v>
+      <c r="C338" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="21">
@@ -5411,8 +5490,8 @@
       <c r="B339" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C339" s="4" t="s">
-        <v>4</v>
+      <c r="C339" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="21">
@@ -5422,8 +5501,8 @@
       <c r="B340" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C340" s="4" t="s">
-        <v>4</v>
+      <c r="C340" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="21">
@@ -5433,8 +5512,8 @@
       <c r="B341" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C341" s="4" t="s">
-        <v>4</v>
+      <c r="C341" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="21">
@@ -5444,8 +5523,8 @@
       <c r="B342" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C342" s="4" t="s">
-        <v>4</v>
+      <c r="C342" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="21">
@@ -5455,8 +5534,8 @@
       <c r="B343" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C343" s="4" t="s">
-        <v>4</v>
+      <c r="C343" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="21">
@@ -5466,8 +5545,8 @@
       <c r="B344" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C344" s="4" t="s">
-        <v>4</v>
+      <c r="C344" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="21">
@@ -5477,8 +5556,8 @@
       <c r="B345" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C345" s="4" t="s">
-        <v>4</v>
+      <c r="C345" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="21">
@@ -5488,8 +5567,8 @@
       <c r="B346" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C346" s="4" t="s">
-        <v>4</v>
+      <c r="C346" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
@@ -5499,8 +5578,8 @@
       <c r="B347" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C347" s="4" t="s">
-        <v>4</v>
+      <c r="C347" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="21">
@@ -5510,8 +5589,8 @@
       <c r="B348" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C348" s="4" t="s">
-        <v>4</v>
+      <c r="C348" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
@@ -5521,8 +5600,8 @@
       <c r="B349" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C349" s="4" t="s">
-        <v>4</v>
+      <c r="C349" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
@@ -5532,8 +5611,8 @@
       <c r="B350" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C350" s="4" t="s">
-        <v>4</v>
+      <c r="C350" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
@@ -5543,8 +5622,8 @@
       <c r="B351" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C351" s="4" t="s">
-        <v>4</v>
+      <c r="C351" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
@@ -5554,8 +5633,8 @@
       <c r="B352" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C352" s="4" t="s">
-        <v>4</v>
+      <c r="C352" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="21">
@@ -5565,17 +5644,21 @@
       <c r="B353" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C353" s="4" t="s">
-        <v>4</v>
+      <c r="C353" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">
       <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
+      <c r="C354" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="21">
       <c r="B355" s="7"/>
-      <c r="C355" s="4"/>
+      <c r="C355" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
@@ -5584,8 +5667,8 @@
       <c r="B356" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C356" s="4" t="s">
-        <v>4</v>
+      <c r="C356" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5595,8 +5678,8 @@
       <c r="B357" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
+      <c r="C357" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5606,8 +5689,8 @@
       <c r="B358" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
+      <c r="C358" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5617,8 +5700,8 @@
       <c r="B359" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C359" s="4" t="s">
-        <v>4</v>
+      <c r="C359" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5628,8 +5711,8 @@
       <c r="B360" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C360" s="4" t="s">
-        <v>4</v>
+      <c r="C360" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5639,8 +5722,8 @@
       <c r="B361" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C361" s="4" t="s">
-        <v>4</v>
+      <c r="C361" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5650,8 +5733,8 @@
       <c r="B362" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C362" s="4" t="s">
-        <v>4</v>
+      <c r="C362" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5661,8 +5744,8 @@
       <c r="B363" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C363" s="4" t="s">
-        <v>4</v>
+      <c r="C363" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5672,8 +5755,8 @@
       <c r="B364" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C364" s="4" t="s">
-        <v>4</v>
+      <c r="C364" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
@@ -5683,8 +5766,8 @@
       <c r="B365" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C365" s="4" t="s">
-        <v>4</v>
+      <c r="C365" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
@@ -5694,8 +5777,8 @@
       <c r="B366" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C366" s="4" t="s">
-        <v>4</v>
+      <c r="C366" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21">
@@ -5705,8 +5788,8 @@
       <c r="B367" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C367" s="4" t="s">
-        <v>4</v>
+      <c r="C367" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">
@@ -5716,8 +5799,8 @@
       <c r="B368" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C368" s="4" t="s">
-        <v>4</v>
+      <c r="C368" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5727,8 +5810,8 @@
       <c r="B369" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C369" s="4" t="s">
-        <v>4</v>
+      <c r="C369" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="21">
@@ -5738,8 +5821,8 @@
       <c r="B370" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C370" s="4" t="s">
-        <v>4</v>
+      <c r="C370" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
@@ -5749,8 +5832,8 @@
       <c r="B371" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C371" s="4" t="s">
-        <v>4</v>
+      <c r="C371" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
@@ -5760,8 +5843,8 @@
       <c r="B372" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C372" s="4" t="s">
-        <v>4</v>
+      <c r="C372" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="21">
@@ -5771,8 +5854,8 @@
       <c r="B373" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C373" s="4" t="s">
-        <v>4</v>
+      <c r="C373" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="21">
@@ -5782,8 +5865,8 @@
       <c r="B374" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C374" s="4" t="s">
-        <v>4</v>
+      <c r="C374" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="21">
@@ -5793,8 +5876,8 @@
       <c r="B375" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C375" s="4" t="s">
-        <v>4</v>
+      <c r="C375" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="21">
@@ -5804,8 +5887,8 @@
       <c r="B376" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C376" s="4" t="s">
-        <v>4</v>
+      <c r="C376" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="21">
@@ -5815,8 +5898,8 @@
       <c r="B377" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C377" s="4" t="s">
-        <v>4</v>
+      <c r="C377" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="21">
@@ -5826,8 +5909,8 @@
       <c r="B378" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C378" s="4" t="s">
-        <v>4</v>
+      <c r="C378" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="21">
@@ -5837,8 +5920,8 @@
       <c r="B379" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C379" s="4" t="s">
-        <v>4</v>
+      <c r="C379" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="21">
@@ -5848,8 +5931,8 @@
       <c r="B380" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C380" s="4" t="s">
-        <v>4</v>
+      <c r="C380" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="21">
@@ -5859,8 +5942,8 @@
       <c r="B381" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C381" s="4" t="s">
-        <v>4</v>
+      <c r="C381" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="21">
@@ -5870,8 +5953,8 @@
       <c r="B382" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C382" s="4" t="s">
-        <v>4</v>
+      <c r="C382" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
@@ -5881,8 +5964,8 @@
       <c r="B383" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C383" s="4" t="s">
-        <v>4</v>
+      <c r="C383" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">
@@ -5892,8 +5975,8 @@
       <c r="B384" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C384" s="4" t="s">
-        <v>4</v>
+      <c r="C384" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="21">
@@ -5903,8 +5986,8 @@
       <c r="B385" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C385" s="4" t="s">
-        <v>4</v>
+      <c r="C385" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="21">
@@ -5914,8 +5997,8 @@
       <c r="B386" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C386" s="4" t="s">
-        <v>4</v>
+      <c r="C386" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="21">
@@ -5925,8 +6008,8 @@
       <c r="B387" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C387" s="4" t="s">
-        <v>4</v>
+      <c r="C387" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="21">
@@ -5936,8 +6019,8 @@
       <c r="B388" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C388" s="4" t="s">
-        <v>4</v>
+      <c r="C388" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="21">
@@ -5947,8 +6030,8 @@
       <c r="B389" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C389" s="4" t="s">
-        <v>4</v>
+      <c r="C389" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="21">
@@ -5958,8 +6041,8 @@
       <c r="B390" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C390" s="4" t="s">
-        <v>4</v>
+      <c r="C390" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="21">
@@ -5969,8 +6052,8 @@
       <c r="B391" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C391" s="4" t="s">
-        <v>4</v>
+      <c r="C391" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="21">
@@ -5980,8 +6063,8 @@
       <c r="B392" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C392" s="4" t="s">
-        <v>4</v>
+      <c r="C392" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="21">
@@ -5991,8 +6074,8 @@
       <c r="B393" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C393" s="4" t="s">
-        <v>4</v>
+      <c r="C393" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="21">
@@ -6002,8 +6085,8 @@
       <c r="B394" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C394" s="4" t="s">
-        <v>4</v>
+      <c r="C394" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="21">
@@ -6013,8 +6096,8 @@
       <c r="B395" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C395" s="4" t="s">
-        <v>4</v>
+      <c r="C395" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="21">
@@ -6024,8 +6107,8 @@
       <c r="B396" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
+      <c r="C396" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="21">
@@ -6035,8 +6118,8 @@
       <c r="B397" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
+      <c r="C397" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="21">
@@ -6046,8 +6129,8 @@
       <c r="B398" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C398" s="4" t="s">
-        <v>4</v>
+      <c r="C398" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="21">
@@ -6057,17 +6140,21 @@
       <c r="B399" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C399" s="4" t="s">
-        <v>4</v>
+      <c r="C399" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="21">
       <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
+      <c r="C400" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="401" spans="1:3" ht="21">
       <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
+      <c r="C401" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
@@ -6076,8 +6163,8 @@
       <c r="B402" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C402" s="4" t="s">
-        <v>4</v>
+      <c r="C402" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="21">
@@ -6087,8 +6174,8 @@
       <c r="B403" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C403" s="4" t="s">
-        <v>4</v>
+      <c r="C403" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="21">
@@ -6098,8 +6185,8 @@
       <c r="B404" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="4" t="s">
-        <v>4</v>
+      <c r="C404" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="21">
@@ -6109,8 +6196,8 @@
       <c r="B405" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>4</v>
+      <c r="C405" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="21">
@@ -6120,8 +6207,8 @@
       <c r="B406" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C406" s="4" t="s">
-        <v>4</v>
+      <c r="C406" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="21">
@@ -6131,17 +6218,21 @@
       <c r="B407" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C407" s="4" t="s">
-        <v>4</v>
+      <c r="C407" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="21">
       <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
+      <c r="C408" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="409" spans="1:3" ht="21">
       <c r="B409" s="7"/>
-      <c r="C409" s="4"/>
+      <c r="C409" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
@@ -6150,8 +6241,8 @@
       <c r="B410" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C410" s="4" t="s">
-        <v>4</v>
+      <c r="C410" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
@@ -6161,8 +6252,8 @@
       <c r="B411" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C411" s="4" t="s">
-        <v>4</v>
+      <c r="C411" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -6172,8 +6263,8 @@
       <c r="B412" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C412" s="4" t="s">
-        <v>4</v>
+      <c r="C412" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
@@ -6183,8 +6274,8 @@
       <c r="B413" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C413" s="4" t="s">
-        <v>4</v>
+      <c r="C413" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
@@ -6194,8 +6285,8 @@
       <c r="B414" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C414" s="4" t="s">
-        <v>4</v>
+      <c r="C414" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
@@ -6205,8 +6296,8 @@
       <c r="B415" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C415" s="4" t="s">
-        <v>4</v>
+      <c r="C415" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
@@ -6216,8 +6307,8 @@
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C416" s="4" t="s">
-        <v>4</v>
+      <c r="C416" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
@@ -6227,8 +6318,8 @@
       <c r="B417" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C417" s="4" t="s">
-        <v>4</v>
+      <c r="C417" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="21">
@@ -6238,8 +6329,8 @@
       <c r="B418" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C418" s="4" t="s">
-        <v>4</v>
+      <c r="C418" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="21">
@@ -6249,8 +6340,8 @@
       <c r="B419" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C419" s="4" t="s">
-        <v>4</v>
+      <c r="C419" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="21">
@@ -6260,8 +6351,8 @@
       <c r="B420" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C420" s="4" t="s">
-        <v>4</v>
+      <c r="C420" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="21">
@@ -6271,8 +6362,8 @@
       <c r="B421" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>4</v>
+      <c r="C421" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="21">
@@ -6282,8 +6373,8 @@
       <c r="B422" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C422" s="4" t="s">
-        <v>4</v>
+      <c r="C422" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="21">
@@ -6293,8 +6384,8 @@
       <c r="B423" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C423" s="4" t="s">
-        <v>4</v>
+      <c r="C423" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="21">
@@ -6304,8 +6395,8 @@
       <c r="B424" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C424" s="4" t="s">
-        <v>4</v>
+      <c r="C424" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="21">
@@ -6315,8 +6406,8 @@
       <c r="B425" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>4</v>
+      <c r="C425" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="21">
@@ -6326,8 +6417,8 @@
       <c r="B426" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C426" s="4" t="s">
-        <v>4</v>
+      <c r="C426" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="21">
@@ -6337,8 +6428,8 @@
       <c r="B427" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C427" s="4" t="s">
-        <v>4</v>
+      <c r="C427" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="21">
@@ -6348,8 +6439,8 @@
       <c r="B428" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C428" s="4" t="s">
-        <v>4</v>
+      <c r="C428" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="21">
@@ -6359,8 +6450,8 @@
       <c r="B429" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C429" s="4" t="s">
-        <v>4</v>
+      <c r="C429" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="21">
@@ -6370,8 +6461,8 @@
       <c r="B430" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C430" s="4" t="s">
-        <v>4</v>
+      <c r="C430" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="21">
@@ -6381,8 +6472,8 @@
       <c r="B431" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C431" s="4" t="s">
-        <v>4</v>
+      <c r="C431" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="21">
@@ -6392,8 +6483,8 @@
       <c r="B432" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C432" s="4" t="s">
-        <v>4</v>
+      <c r="C432" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="21">
@@ -6403,8 +6494,8 @@
       <c r="B433" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>4</v>
+      <c r="C433" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="21">
@@ -6414,8 +6505,8 @@
       <c r="B434" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C434" s="4" t="s">
-        <v>4</v>
+      <c r="C434" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="21">
@@ -6425,8 +6516,8 @@
       <c r="B435" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C435" s="4" t="s">
-        <v>4</v>
+      <c r="C435" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="21">
@@ -6436,8 +6527,8 @@
       <c r="B436" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C436" s="4" t="s">
-        <v>4</v>
+      <c r="C436" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="21">
@@ -6447,8 +6538,8 @@
       <c r="B437" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C437" s="4" t="s">
-        <v>4</v>
+      <c r="C437" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="21">
@@ -6458,8 +6549,8 @@
       <c r="B438" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C438" s="4" t="s">
-        <v>4</v>
+      <c r="C438" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="21">
@@ -6469,8 +6560,8 @@
       <c r="B439" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C439" s="4" t="s">
-        <v>4</v>
+      <c r="C439" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="21">
@@ -6480,8 +6571,8 @@
       <c r="B440" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C440" s="4" t="s">
-        <v>4</v>
+      <c r="C440" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="21">
@@ -6491,8 +6582,8 @@
       <c r="B441" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C441" s="4" t="s">
-        <v>4</v>
+      <c r="C441" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="21">
@@ -6502,8 +6593,8 @@
       <c r="B442" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>4</v>
+      <c r="C442" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="21">
@@ -6513,8 +6604,8 @@
       <c r="B443" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>4</v>
+      <c r="C443" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="21">
@@ -6524,8 +6615,8 @@
       <c r="B444" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C444" s="4" t="s">
-        <v>4</v>
+      <c r="C444" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="21">
@@ -6535,8 +6626,8 @@
       <c r="B445" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C445" s="4" t="s">
-        <v>4</v>
+      <c r="C445" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="21">
@@ -6546,8 +6637,8 @@
       <c r="B446" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C446" s="4" t="s">
-        <v>4</v>
+      <c r="C446" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="21">
@@ -6557,8 +6648,8 @@
       <c r="B447" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C447" s="4" t="s">
-        <v>4</v>
+      <c r="C447" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="21">
@@ -6568,8 +6659,8 @@
       <c r="B448" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C448" s="4" t="s">
-        <v>4</v>
+      <c r="C448" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="21">
@@ -6579,8 +6670,8 @@
       <c r="B449" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C449" s="4" t="s">
-        <v>4</v>
+      <c r="C449" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="21">
@@ -6590,8 +6681,8 @@
       <c r="B450" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C450" s="4" t="s">
-        <v>4</v>
+      <c r="C450" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="21">
@@ -6601,8 +6692,8 @@
       <c r="B451" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C451" s="4" t="s">
-        <v>4</v>
+      <c r="C451" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="21">
@@ -6612,8 +6703,8 @@
       <c r="B452" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C452" s="4" t="s">
-        <v>4</v>
+      <c r="C452" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="21">
@@ -6623,8 +6714,8 @@
       <c r="B453" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C453" s="4" t="s">
-        <v>4</v>
+      <c r="C453" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="21">
@@ -6634,8 +6725,8 @@
       <c r="B454" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C454" s="4" t="s">
-        <v>4</v>
+      <c r="C454" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="21">
@@ -6645,8 +6736,8 @@
       <c r="B455" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C455" s="4" t="s">
-        <v>4</v>
+      <c r="C455" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="21">
@@ -6656,8 +6747,8 @@
       <c r="B456" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C456" s="4" t="s">
-        <v>4</v>
+      <c r="C456" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="21">
@@ -6667,8 +6758,8 @@
       <c r="B457" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C457" s="4" t="s">
-        <v>4</v>
+      <c r="C457" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="21">
@@ -6678,8 +6769,8 @@
       <c r="B458" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C458" s="4" t="s">
-        <v>4</v>
+      <c r="C458" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="21">
@@ -6689,8 +6780,8 @@
       <c r="B459" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C459" s="4" t="s">
-        <v>4</v>
+      <c r="C459" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="21">
@@ -6700,8 +6791,8 @@
       <c r="B460" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C460" s="4" t="s">
-        <v>4</v>
+      <c r="C460" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="21">
@@ -6711,8 +6802,8 @@
       <c r="B461" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C461" s="4" t="s">
-        <v>4</v>
+      <c r="C461" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="21">
@@ -6722,8 +6813,8 @@
       <c r="B462" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C462" s="4" t="s">
-        <v>4</v>
+      <c r="C462" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="21">
@@ -6733,8 +6824,8 @@
       <c r="B463" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C463" s="4" t="s">
-        <v>4</v>
+      <c r="C463" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="21">
@@ -6744,8 +6835,8 @@
       <c r="B464" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C464" s="4" t="s">
-        <v>4</v>
+      <c r="C464" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="21">
@@ -6755,8 +6846,8 @@
       <c r="B465" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C465" s="4" t="s">
-        <v>4</v>
+      <c r="C465" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="21">
@@ -6766,8 +6857,8 @@
       <c r="B466" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
+      <c r="C466" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="21">
@@ -6777,8 +6868,8 @@
       <c r="B467" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
+      <c r="C467" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="21">
@@ -6788,8 +6879,8 @@
       <c r="B468" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C468" s="4" t="s">
-        <v>4</v>
+      <c r="C468" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="21">
@@ -6799,18 +6890,22 @@
       <c r="B469" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C469" s="4" t="s">
-        <v>4</v>
+      <c r="C469" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="21">
       <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
+      <c r="C470" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="471" spans="1:3" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
+      <c r="C471" s="12" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
@@ -6819,8 +6914,8 @@
       <c r="B472" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C472" s="4" t="s">
-        <v>4</v>
+      <c r="C472" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6830,8 +6925,8 @@
       <c r="B473" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C473" s="4" t="s">
-        <v>4</v>
+      <c r="C473" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6841,8 +6936,8 @@
       <c r="B474" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C474" s="4" t="s">
-        <v>4</v>
+      <c r="C474" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -6852,8 +6947,8 @@
       <c r="B475" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C475" s="4" t="s">
-        <v>4</v>
+      <c r="C475" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -6863,8 +6958,8 @@
       <c r="B476" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C476" s="4" t="s">
-        <v>4</v>
+      <c r="C476" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6874,8 +6969,8 @@
       <c r="B477" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C477" s="4" t="s">
-        <v>4</v>
+      <c r="C477" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
@@ -6885,8 +6980,8 @@
       <c r="B478" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C478" s="4" t="s">
-        <v>4</v>
+      <c r="C478" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
@@ -6896,8 +6991,8 @@
       <c r="B479" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C479" s="4" t="s">
-        <v>4</v>
+      <c r="C479" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
@@ -6907,8 +7002,8 @@
       <c r="B480" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>4</v>
+      <c r="C480" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
@@ -6918,8 +7013,8 @@
       <c r="B481" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C481" s="4" t="s">
-        <v>4</v>
+      <c r="C481" s="12" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -7372,5 +7467,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId447"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++\DSA_final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046D06E-4601-4070-B4D7-B1EFF8D7A89F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7377A-F846-44F4-BA46-71F2E159ACF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1937,8 +1937,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>466</v>
+      <c r="C7" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1948,8 +1948,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>466</v>
+      <c r="C8" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1959,8 +1959,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>466</v>
+      <c r="C9" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1970,8 +1970,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>466</v>
+      <c r="C10" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1981,8 +1981,8 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>466</v>
+      <c r="C11" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1992,8 +1992,8 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>466</v>
+      <c r="C12" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -2003,8 +2003,8 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>466</v>
+      <c r="C13" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2014,8 +2014,8 @@
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>466</v>
+      <c r="C14" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2058,8 +2058,8 @@
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>466</v>
+      <c r="C18" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++\DSA_final-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFFF0C-C6C9-4746-997F-763FCD4F0A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A119DBA-EE48-43A7-90E4-1C48088E2EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2335,8 +2335,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>466</v>
+      <c r="C44" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2346,8 +2346,8 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>466</v>
+      <c r="C45" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
